--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GF_X\AAAGameData\DataTables\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\GF_X_Demo\AAAGameData\DataTables\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6602021A-CB89-4741-AB19-F50015976915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="555" yWindow="2400" windowWidth="16410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -109,12 +110,15 @@
   <si>
     <t>同组界面被覆盖时是否隐藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyMenuUIForm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,9 +223,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,6 +736,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -740,7 +764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -753,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
